--- a/python_Proyect/Resultados/Estimadores_Abundancia.xlsx
+++ b/python_Proyect/Resultados/Estimadores_Abundancia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/python_Proyect/Resultados/Estimadores_Abundancia.xlsx
+++ b/python_Proyect/Resultados/Estimadores_Abundancia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -793,37 +793,37 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>95.938</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>7.88176872778428</v>
+        <v>7.96903893713549</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>111</v>
+        <v>112.025</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>11</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>18.179</v>
+        <v>17.968</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>4.14175242054775</v>
+        <v>3.98105825438725</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>14</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>22.059</v>
+        <v>22.027</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>4.46311981000269</v>
+        <v>4.43056439981419</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>31</v>
@@ -937,16 +937,16 @@
         <v>147.089</v>
       </c>
       <c r="AX2" s="3" t="n">
-        <v>105.10523</v>
+        <v>104.37065</v>
       </c>
       <c r="AY2" s="3" t="n">
-        <v>9.79106100342697</v>
+        <v>11.0057456623045</v>
       </c>
       <c r="AZ2" s="3" t="n">
-        <v>84.41665</v>
+        <v>84.6692</v>
       </c>
       <c r="BA2" s="3" t="n">
-        <v>121.880025</v>
+        <v>126.71925</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
@@ -956,25 +956,25 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>96.97499999999999</v>
+        <v>97</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>113.112</v>
+        <v>113.489</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>8.50939867827721</v>
+        <v>8.959137522392719</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>9</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>16.097</v>
+        <v>16.145</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>3.68797941862373</v>
+        <v>3.89424448900427</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>24</v>
@@ -983,13 +983,13 @@
         <v>20</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>29.987</v>
+        <v>30.206</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>5.17141900976652</v>
+        <v>5.4054401099987</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>40</v>
+        <v>41.025</v>
       </c>
       <c r="N3" s="3" t="n">
         <v>114.692</v>
@@ -1100,16 +1100,16 @@
         <v>179.963</v>
       </c>
       <c r="AX3" s="3" t="n">
-        <v>117.76554</v>
+        <v>118.2781</v>
       </c>
       <c r="AY3" s="3" t="n">
-        <v>8.9991461372957</v>
+        <v>8.795128645385971</v>
       </c>
       <c r="AZ3" s="3" t="n">
-        <v>101.6248</v>
+        <v>101.613425</v>
       </c>
       <c r="BA3" s="3" t="n">
-        <v>133.87465</v>
+        <v>135.39735</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>149.244</v>
+        <v>149.417</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>8.86075487624937</v>
+        <v>8.398907824988481</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>4</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>8.977</v>
+        <v>9.073</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>2.97208753308248</v>
+        <v>2.96588392683656</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>15</v>
@@ -1146,13 +1146,13 @@
         <v>29</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>40.25</v>
+        <v>40.16</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>6.01745043267576</v>
+        <v>5.77336398746275</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>149.643</v>
@@ -1263,16 +1263,16 @@
         <v>165.528</v>
       </c>
       <c r="AX4" s="3" t="n">
-        <v>149.57445</v>
+        <v>149.81845</v>
       </c>
       <c r="AY4" s="3" t="n">
-        <v>8.298765469068639</v>
+        <v>8.6517553125001</v>
       </c>
       <c r="AZ4" s="3" t="n">
-        <v>132.233925</v>
+        <v>137.875</v>
       </c>
       <c r="BA4" s="3" t="n">
-        <v>163.6667</v>
+        <v>167.5634</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>199.686</v>
+        <v>199.8</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>8.344521258588481</v>
+        <v>8.126748676072371</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>216</v>
@@ -1297,25 +1297,25 @@
         <v>10</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>17.869</v>
+        <v>18.095</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>3.97160076198661</v>
+        <v>4.25535933654058</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>43.325</v>
+        <v>42.89</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>6.35182814004919</v>
+        <v>5.95998501855679</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N5" s="3" t="n">
         <v>201.934</v>
@@ -1426,16 +1426,16 @@
         <v>222.117</v>
       </c>
       <c r="AX5" s="3" t="n">
-        <v>204.09587</v>
+        <v>204.51878</v>
       </c>
       <c r="AY5" s="3" t="n">
-        <v>8.8972315597254</v>
+        <v>7.79570940212783</v>
       </c>
       <c r="AZ5" s="3" t="n">
-        <v>189.8836</v>
+        <v>188.502575</v>
       </c>
       <c r="BA5" s="3" t="n">
-        <v>219.927125</v>
+        <v>218.659025</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -1445,40 +1445,40 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>235.604</v>
+        <v>236.156</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>7.28094747929115</v>
+        <v>7.214548753298</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>250</v>
+        <v>250.025</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>25.028</v>
+        <v>24.818</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>4.74591821882128</v>
+        <v>4.62171356060025</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>31</v>
+        <v>30.975</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>41.812</v>
+        <v>41.96</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>5.72795473668093</v>
+        <v>6.16769328358994</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="3" t="n">
         <v>238.954</v>
@@ -1589,16 +1589,16 @@
         <v>304.793</v>
       </c>
       <c r="AX6" s="3" t="n">
-        <v>244.89504</v>
+        <v>242.77555</v>
       </c>
       <c r="AY6" s="3" t="n">
-        <v>7.88409515688568</v>
+        <v>9.08142288652717</v>
       </c>
       <c r="AZ6" s="3" t="n">
-        <v>229.46675</v>
+        <v>227.92385</v>
       </c>
       <c r="BA6" s="3" t="n">
-        <v>259.460675</v>
+        <v>260.3925</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
@@ -1611,34 +1611,34 @@
         <v>238</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>250.802</v>
+        <v>250.997</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>6.27759541577858</v>
+        <v>6.54567313855778</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>22.913</v>
+        <v>23.149</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>4.77181319848139</v>
+        <v>4.51366504873503</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>32</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>50.892</v>
+        <v>51.265</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>6.55311218271741</v>
+        <v>6.37490505140386</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>64</v>
@@ -1752,16 +1752,16 @@
         <v>277.438</v>
       </c>
       <c r="AX7" s="3" t="n">
-        <v>255.82093</v>
+        <v>257.0253</v>
       </c>
       <c r="AY7" s="3" t="n">
-        <v>7.46726474641353</v>
+        <v>7.92256627576819</v>
       </c>
       <c r="AZ7" s="3" t="n">
-        <v>241.824275</v>
+        <v>241.2969</v>
       </c>
       <c r="BA7" s="3" t="n">
-        <v>269.907525</v>
+        <v>270.445325</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
@@ -1771,40 +1771,40 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>273.414</v>
+        <v>273.343</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>5.18917445568479</v>
+        <v>5.26679125180504</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>283</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>27.177</v>
+        <v>26.998</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>5.16026155338073</v>
+        <v>4.84576902849047</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>54.205</v>
+        <v>54.352</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>6.48112490081621</v>
+        <v>6.59633289090292</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N8" s="3" t="n">
         <v>276.697</v>
@@ -1915,16 +1915,16 @@
         <v>300.68</v>
       </c>
       <c r="AX8" s="3" t="n">
-        <v>280.23644</v>
+        <v>279.47169</v>
       </c>
       <c r="AY8" s="3" t="n">
-        <v>5.19069137357998</v>
+        <v>5.89213971131683</v>
       </c>
       <c r="AZ8" s="3" t="n">
-        <v>270.023875</v>
+        <v>266.9148</v>
       </c>
       <c r="BA8" s="3" t="n">
-        <v>288.203925</v>
+        <v>290.4127</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
@@ -1937,10 +1937,10 @@
         <v>296</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>300.07</v>
+        <v>299.987</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>2.00077562537709</v>
+        <v>1.98109963297048</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>303</v>
@@ -1949,22 +1949,22 @@
         <v>24</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>34.371</v>
+        <v>33.839</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>5.34002573728581</v>
+        <v>5.55355029876573</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>45</v>
+        <v>45.025</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>38</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>50.745</v>
+        <v>50.923</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>6.72794472630686</v>
+        <v>6.4287167770403</v>
       </c>
       <c r="M9" s="3" t="n">
         <v>64</v>
@@ -2078,16 +2078,16 @@
         <v>371.154</v>
       </c>
       <c r="AX9" s="3" t="n">
-        <v>312.26599</v>
+        <v>311.56905</v>
       </c>
       <c r="AY9" s="3" t="n">
-        <v>5.04036655412074</v>
+        <v>4.36215977313574</v>
       </c>
       <c r="AZ9" s="3" t="n">
-        <v>303.9183</v>
+        <v>304.791375</v>
       </c>
       <c r="BA9" s="3" t="n">
-        <v>321.469775</v>
+        <v>321.578375</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
@@ -2109,25 +2109,25 @@
         <v>304</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>35.005</v>
+        <v>34.828</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>5.53783736151963</v>
+        <v>5.47397299777596</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>46</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>49.247</v>
+        <v>48.854</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>6.53105241485977</v>
+        <v>6.48588858605748</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>62</v>
@@ -2241,16 +2241,16 @@
         <v>375.317</v>
       </c>
       <c r="AX10" s="3" t="n">
-        <v>316.3668</v>
+        <v>317.47888</v>
       </c>
       <c r="AY10" s="3" t="n">
-        <v>4.26533893167005</v>
+        <v>4.18950640587271</v>
       </c>
       <c r="AZ10" s="3" t="n">
-        <v>309.9465</v>
+        <v>310.926725</v>
       </c>
       <c r="BA10" s="3" t="n">
-        <v>324.516575</v>
+        <v>324.563775</v>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Estimadores_Abundancia.xlsx
+++ b/python_Proyect/Resultados/Estimadores_Abundancia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -793,37 +793,37 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>96.11799999999999</v>
+        <v>95.999</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>7.96903893713549</v>
+        <v>8.249427377221529</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>112.025</v>
+        <v>112</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>17.968</v>
+        <v>18.081</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>3.98105825438725</v>
+        <v>4.11769284847649</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>26</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>22.027</v>
+        <v>21.902</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>4.43056439981419</v>
+        <v>4.6116877239969</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>31</v>
@@ -937,16 +937,16 @@
         <v>147.089</v>
       </c>
       <c r="AX2" s="3" t="n">
-        <v>104.37065</v>
+        <v>103.77546</v>
       </c>
       <c r="AY2" s="3" t="n">
-        <v>11.0057456623045</v>
+        <v>9.924687975066229</v>
       </c>
       <c r="AZ2" s="3" t="n">
-        <v>84.6692</v>
+        <v>87.535325</v>
       </c>
       <c r="BA2" s="3" t="n">
-        <v>126.71925</v>
+        <v>125.455025</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
@@ -959,22 +959,22 @@
         <v>97</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>113.489</v>
+        <v>113.6</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>8.959137522392719</v>
+        <v>8.50719532938867</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>9</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>16.145</v>
+        <v>15.963</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>3.89424448900427</v>
+        <v>3.92313930698644</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>24</v>
@@ -983,13 +983,13 @@
         <v>20</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>30.206</v>
+        <v>30.411</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>5.4054401099987</v>
+        <v>5.1502042293101</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>41.025</v>
+        <v>41</v>
       </c>
       <c r="N3" s="3" t="n">
         <v>114.692</v>
@@ -1100,16 +1100,16 @@
         <v>179.963</v>
       </c>
       <c r="AX3" s="3" t="n">
-        <v>118.2781</v>
+        <v>118.50922</v>
       </c>
       <c r="AY3" s="3" t="n">
-        <v>8.795128645385971</v>
+        <v>8.84656465034463</v>
       </c>
       <c r="AZ3" s="3" t="n">
-        <v>101.613425</v>
+        <v>101.716275</v>
       </c>
       <c r="BA3" s="3" t="n">
-        <v>135.39735</v>
+        <v>133.70745</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>133</v>
+        <v>130.975</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>149.417</v>
+        <v>148.468</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>8.398907824988481</v>
+        <v>8.80468616695101</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>166</v>
@@ -1134,22 +1134,22 @@
         <v>4</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>9.073</v>
+        <v>9.214</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>2.96588392683656</v>
+        <v>3.02974972289517</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>40.16</v>
+        <v>39.792</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>5.77336398746275</v>
+        <v>6.07335340825986</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>52</v>
@@ -1263,16 +1263,16 @@
         <v>165.528</v>
       </c>
       <c r="AX4" s="3" t="n">
-        <v>149.81845</v>
+        <v>151.30621</v>
       </c>
       <c r="AY4" s="3" t="n">
-        <v>8.6517553125001</v>
+        <v>9.398413504948589</v>
       </c>
       <c r="AZ4" s="3" t="n">
-        <v>137.875</v>
+        <v>131.88615</v>
       </c>
       <c r="BA4" s="3" t="n">
-        <v>167.5634</v>
+        <v>166.13715</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -1282,25 +1282,25 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>184</v>
+        <v>183.975</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>199.8</v>
+        <v>199.728</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>8.126748676072371</v>
+        <v>7.89470343599697</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>18.095</v>
+        <v>18.285</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>4.25535933654058</v>
+        <v>4.14499167139766</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>27</v>
@@ -1309,13 +1309,13 @@
         <v>31</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>42.89</v>
+        <v>42.863</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>5.95998501855679</v>
+        <v>6.18048779866358</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5" s="3" t="n">
         <v>201.934</v>
@@ -1426,16 +1426,16 @@
         <v>222.117</v>
       </c>
       <c r="AX5" s="3" t="n">
-        <v>204.51878</v>
+        <v>203.75728</v>
       </c>
       <c r="AY5" s="3" t="n">
-        <v>7.79570940212783</v>
+        <v>7.24297759390836</v>
       </c>
       <c r="AZ5" s="3" t="n">
-        <v>188.502575</v>
+        <v>192.93485</v>
       </c>
       <c r="BA5" s="3" t="n">
-        <v>218.659025</v>
+        <v>217.71235</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -1445,40 +1445,40 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>236.156</v>
+        <v>236.01</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>7.214548753298</v>
+        <v>7.29239871915127</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>250.025</v>
+        <v>250</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>15</v>
+        <v>16.975</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>24.818</v>
+        <v>24.95</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>4.62171356060025</v>
+        <v>4.67068681409012</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>30.975</v>
+        <v>31</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>41.96</v>
+        <v>42.27</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>6.16769328358994</v>
+        <v>5.86988548061677</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6" s="3" t="n">
         <v>238.954</v>
@@ -1589,16 +1589,16 @@
         <v>304.793</v>
       </c>
       <c r="AX6" s="3" t="n">
-        <v>242.77555</v>
+        <v>242.8557</v>
       </c>
       <c r="AY6" s="3" t="n">
-        <v>9.08142288652717</v>
+        <v>7.9533041154941</v>
       </c>
       <c r="AZ6" s="3" t="n">
-        <v>227.92385</v>
+        <v>227.929925</v>
       </c>
       <c r="BA6" s="3" t="n">
-        <v>260.3925</v>
+        <v>258.74905</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
@@ -1611,22 +1611,22 @@
         <v>238</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>250.997</v>
+        <v>251.176</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>6.54567313855778</v>
+        <v>6.63815404228383</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>264</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>23.149</v>
+        <v>22.893</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>4.51366504873503</v>
+        <v>4.723543464695</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>32</v>
@@ -1635,13 +1635,13 @@
         <v>39</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>51.265</v>
+        <v>51.236</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>6.37490505140386</v>
+        <v>6.57065274363799</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N7" s="3" t="n">
         <v>253.735</v>
@@ -1752,16 +1752,16 @@
         <v>277.438</v>
       </c>
       <c r="AX7" s="3" t="n">
-        <v>257.0253</v>
+        <v>257.85943</v>
       </c>
       <c r="AY7" s="3" t="n">
-        <v>7.92256627576819</v>
+        <v>7.98881837668479</v>
       </c>
       <c r="AZ7" s="3" t="n">
-        <v>241.2969</v>
+        <v>243.4114</v>
       </c>
       <c r="BA7" s="3" t="n">
-        <v>270.445325</v>
+        <v>272.353875</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
@@ -1774,34 +1774,34 @@
         <v>262</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>273.343</v>
+        <v>272.405</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>5.26679125180504</v>
+        <v>5.49792708229222</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>283</v>
+        <v>282.025</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>18</v>
+        <v>17.975</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>26.998</v>
+        <v>27.048</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>4.84576902849047</v>
+        <v>5.15385857957494</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>41</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>54.352</v>
+        <v>54.061</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>6.59633289090292</v>
+        <v>6.72908311432988</v>
       </c>
       <c r="M8" s="3" t="n">
         <v>68</v>
@@ -1915,16 +1915,16 @@
         <v>300.68</v>
       </c>
       <c r="AX8" s="3" t="n">
-        <v>279.47169</v>
+        <v>280.59525</v>
       </c>
       <c r="AY8" s="3" t="n">
-        <v>5.89213971131683</v>
+        <v>5.65997130730315</v>
       </c>
       <c r="AZ8" s="3" t="n">
-        <v>266.9148</v>
+        <v>270.141725</v>
       </c>
       <c r="BA8" s="3" t="n">
-        <v>290.4127</v>
+        <v>291.608625</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
@@ -1937,10 +1937,10 @@
         <v>296</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>299.987</v>
+        <v>300.038</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>1.98109963297048</v>
+        <v>2.00213999624516</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>303</v>
@@ -1949,25 +1949,25 @@
         <v>24</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>33.839</v>
+        <v>34.14</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>5.55355029876573</v>
+        <v>5.69111489857557</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>45.025</v>
+        <v>46</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>38</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>50.923</v>
+        <v>51.052</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>6.4287167770403</v>
+        <v>6.5743835086279</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>64</v>
+        <v>64.02500000000001</v>
       </c>
       <c r="N9" s="3" t="n">
         <v>304.956</v>
@@ -2078,16 +2078,16 @@
         <v>371.154</v>
       </c>
       <c r="AX9" s="3" t="n">
-        <v>311.56905</v>
+        <v>311.56117</v>
       </c>
       <c r="AY9" s="3" t="n">
-        <v>4.36215977313574</v>
+        <v>4.30629701025196</v>
       </c>
       <c r="AZ9" s="3" t="n">
-        <v>304.791375</v>
+        <v>304.0678</v>
       </c>
       <c r="BA9" s="3" t="n">
-        <v>321.578375</v>
+        <v>321.38315</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
@@ -2112,25 +2112,25 @@
         <v>24</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>34.828</v>
+        <v>34.662</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>5.47397299777596</v>
+        <v>5.36997137726009</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>36</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>48.854</v>
+        <v>48.39</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>6.48588858605748</v>
+        <v>6.39490381435052</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N10" s="3" t="n">
         <v>309.08</v>
@@ -2241,16 +2241,16 @@
         <v>375.317</v>
       </c>
       <c r="AX10" s="3" t="n">
-        <v>317.47888</v>
+        <v>316.47225</v>
       </c>
       <c r="AY10" s="3" t="n">
-        <v>4.18950640587271</v>
+        <v>4.54351793656622</v>
       </c>
       <c r="AZ10" s="3" t="n">
-        <v>310.926725</v>
+        <v>310.214475</v>
       </c>
       <c r="BA10" s="3" t="n">
-        <v>324.563775</v>
+        <v>326.571275</v>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Estimadores_Abundancia.xlsx
+++ b/python_Proyect/Resultados/Estimadores_Abundancia.xlsx
@@ -796,37 +796,37 @@
         <v>81</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>95.999</v>
+        <v>96.199</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>8.249427377221529</v>
+        <v>8.227581181130461</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>18.081</v>
+        <v>17.827</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>4.11769284847649</v>
+        <v>4.08775987318003</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>21.902</v>
+        <v>22.189</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>4.6116877239969</v>
+        <v>4.72478598484657</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="3" t="n">
         <v>98.184</v>
@@ -937,16 +937,16 @@
         <v>147.089</v>
       </c>
       <c r="AX2" s="3" t="n">
-        <v>103.77546</v>
+        <v>104.25979</v>
       </c>
       <c r="AY2" s="3" t="n">
-        <v>9.924687975066229</v>
+        <v>9.625615030377549</v>
       </c>
       <c r="AZ2" s="3" t="n">
-        <v>87.535325</v>
+        <v>84.624275</v>
       </c>
       <c r="BA2" s="3" t="n">
-        <v>125.455025</v>
+        <v>122.5564</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>113.6</v>
+        <v>112.709</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>8.50719532938867</v>
+        <v>8.542323471415161</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>130</v>
@@ -971,10 +971,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>15.963</v>
+        <v>16.026</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>3.92313930698644</v>
+        <v>3.88231843057681</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>24</v>
@@ -983,13 +983,13 @@
         <v>20</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>30.411</v>
+        <v>29.68</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>5.1502042293101</v>
+        <v>5.13458508196757</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="3" t="n">
         <v>114.692</v>
@@ -1100,16 +1100,16 @@
         <v>179.963</v>
       </c>
       <c r="AX3" s="3" t="n">
-        <v>118.50922</v>
+        <v>117.6429</v>
       </c>
       <c r="AY3" s="3" t="n">
-        <v>8.84656465034463</v>
+        <v>8.72879122979427</v>
       </c>
       <c r="AZ3" s="3" t="n">
-        <v>101.716275</v>
+        <v>100.3524</v>
       </c>
       <c r="BA3" s="3" t="n">
-        <v>133.70745</v>
+        <v>134.49415</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>130.975</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>148.468</v>
+        <v>148.923</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>8.80468616695101</v>
+        <v>9.115600099015159</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>166</v>
@@ -1134,22 +1134,22 @@
         <v>4</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>9.214</v>
+        <v>9.016</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>3.02974972289517</v>
+        <v>2.94115528226484</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>39.792</v>
+        <v>39.872</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>6.07335340825986</v>
+        <v>5.95122113797102</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>52</v>
@@ -1263,16 +1263,16 @@
         <v>165.528</v>
       </c>
       <c r="AX4" s="3" t="n">
-        <v>151.30621</v>
+        <v>150.31755</v>
       </c>
       <c r="AY4" s="3" t="n">
-        <v>9.398413504948589</v>
+        <v>9.34326951120917</v>
       </c>
       <c r="AZ4" s="3" t="n">
-        <v>131.88615</v>
+        <v>132.15555</v>
       </c>
       <c r="BA4" s="3" t="n">
-        <v>166.13715</v>
+        <v>167.075525</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -1282,40 +1282,40 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>183.975</v>
+        <v>184</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>199.728</v>
+        <v>200.016</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>7.89470343599697</v>
+        <v>8.20079246152449</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>214</v>
+        <v>216.025</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>11</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>18.285</v>
+        <v>18.092</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>4.14499167139766</v>
+        <v>4.05635180796612</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>27</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>42.863</v>
+        <v>42.981</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>6.18048779866358</v>
+        <v>5.88143096790485</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N5" s="3" t="n">
         <v>201.934</v>
@@ -1426,16 +1426,16 @@
         <v>222.117</v>
       </c>
       <c r="AX5" s="3" t="n">
-        <v>203.75728</v>
+        <v>203.67686</v>
       </c>
       <c r="AY5" s="3" t="n">
-        <v>7.24297759390836</v>
+        <v>9.039837279553661</v>
       </c>
       <c r="AZ5" s="3" t="n">
-        <v>192.93485</v>
+        <v>184.704425</v>
       </c>
       <c r="BA5" s="3" t="n">
-        <v>217.71235</v>
+        <v>221.752225</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -1445,13 +1445,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>221</v>
+        <v>220.975</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>236.01</v>
+        <v>235.978</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>7.29239871915127</v>
+        <v>7.45809219164923</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>250</v>
@@ -1460,25 +1460,25 @@
         <v>16.975</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>24.95</v>
+        <v>25.054</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>4.67068681409012</v>
+        <v>4.76547938761609</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>35</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>42.27</v>
+        <v>41.542</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>5.86988548061677</v>
+        <v>6.20908920766877</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6" s="3" t="n">
         <v>238.954</v>
@@ -1589,16 +1589,16 @@
         <v>304.793</v>
       </c>
       <c r="AX6" s="3" t="n">
-        <v>242.8557</v>
+        <v>242.20009</v>
       </c>
       <c r="AY6" s="3" t="n">
-        <v>7.9533041154941</v>
+        <v>7.91312526352658</v>
       </c>
       <c r="AZ6" s="3" t="n">
-        <v>227.929925</v>
+        <v>226.9614</v>
       </c>
       <c r="BA6" s="3" t="n">
-        <v>258.74905</v>
+        <v>260.156475</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
@@ -1611,10 +1611,10 @@
         <v>238</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>251.176</v>
+        <v>251.162</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>6.63815404228383</v>
+        <v>6.60540592146973</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>264</v>
@@ -1623,25 +1623,25 @@
         <v>14</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>22.893</v>
+        <v>22.897</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>4.723543464695</v>
+        <v>4.64240702038748</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>32</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>51.236</v>
+        <v>51.164</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>6.57065274363799</v>
+        <v>6.56568444354526</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N7" s="3" t="n">
         <v>253.735</v>
@@ -1752,16 +1752,16 @@
         <v>277.438</v>
       </c>
       <c r="AX7" s="3" t="n">
-        <v>257.85943</v>
+        <v>256.17924</v>
       </c>
       <c r="AY7" s="3" t="n">
-        <v>7.98881837668479</v>
+        <v>7.99630885695129</v>
       </c>
       <c r="AZ7" s="3" t="n">
-        <v>243.4114</v>
+        <v>240.689325</v>
       </c>
       <c r="BA7" s="3" t="n">
-        <v>272.353875</v>
+        <v>270.193775</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
@@ -1771,40 +1771,40 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>272.405</v>
+        <v>273.129</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>5.49792708229222</v>
+        <v>5.09198264797586</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>282.025</v>
+        <v>283</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>17.975</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>27.048</v>
+        <v>26.917</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>5.15385857957494</v>
+        <v>5.15836405459325</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>38</v>
+        <v>37.025</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>54.061</v>
+        <v>53.996</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>6.72908311432988</v>
+        <v>6.55430720541408</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" s="3" t="n">
         <v>276.697</v>
@@ -1915,16 +1915,16 @@
         <v>300.68</v>
       </c>
       <c r="AX8" s="3" t="n">
-        <v>280.59525</v>
+        <v>279.27631</v>
       </c>
       <c r="AY8" s="3" t="n">
-        <v>5.65997130730315</v>
+        <v>6.31254545449381</v>
       </c>
       <c r="AZ8" s="3" t="n">
-        <v>270.141725</v>
+        <v>267.566125</v>
       </c>
       <c r="BA8" s="3" t="n">
-        <v>291.608625</v>
+        <v>290.9893</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
@@ -1934,13 +1934,13 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>300.038</v>
+        <v>299.945</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>2.00213999624516</v>
+        <v>2.02733447785142</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>303</v>
@@ -1949,22 +1949,22 @@
         <v>24</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>34.14</v>
+        <v>33.933</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>5.69111489857557</v>
+        <v>5.47434740215484</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>46</v>
+        <v>44.025</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>38</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>51.052</v>
+        <v>50.954</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>6.5743835086279</v>
+        <v>6.75184948525006</v>
       </c>
       <c r="M9" s="3" t="n">
         <v>64.02500000000001</v>
@@ -2078,16 +2078,16 @@
         <v>371.154</v>
       </c>
       <c r="AX9" s="3" t="n">
-        <v>311.56117</v>
+        <v>311.8472</v>
       </c>
       <c r="AY9" s="3" t="n">
-        <v>4.30629701025196</v>
+        <v>4.54536793412433</v>
       </c>
       <c r="AZ9" s="3" t="n">
-        <v>304.0678</v>
+        <v>303.108025</v>
       </c>
       <c r="BA9" s="3" t="n">
-        <v>321.38315</v>
+        <v>320.032425</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
@@ -2109,25 +2109,25 @@
         <v>304</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>34.662</v>
+        <v>35.16</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>5.36997137726009</v>
+        <v>5.45767223147252</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>48.39</v>
+        <v>48.796</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>6.39490381435052</v>
+        <v>6.20055084898357</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>61</v>
@@ -2241,16 +2241,16 @@
         <v>375.317</v>
       </c>
       <c r="AX10" s="3" t="n">
-        <v>316.47225</v>
+        <v>316.75943</v>
       </c>
       <c r="AY10" s="3" t="n">
-        <v>4.54351793656622</v>
+        <v>4.38635113826764</v>
       </c>
       <c r="AZ10" s="3" t="n">
-        <v>310.214475</v>
+        <v>310.058075</v>
       </c>
       <c r="BA10" s="3" t="n">
-        <v>326.571275</v>
+        <v>324.627325</v>
       </c>
     </row>
   </sheetData>
